--- a/timeline/timeline_Q3_Q4_2019.xlsx
+++ b/timeline/timeline_Q3_Q4_2019.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boriskingma/Documents/GitHub/ClimApp/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA2805C-B674-5D4D-B057-E3AA8297F8FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09934DF0-D6DA-C645-B3FC-596AC12C5DF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8BDD9065-E39F-CF4E-A2F0-D4E02DDAB2F3}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8BDD9065-E39F-CF4E-A2F0-D4E02DDAB2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$AA$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$AA$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>prediction model</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>update text info to users on app (without app update)</t>
+  </si>
+  <si>
+    <t>Boris/Jorn</t>
+  </si>
+  <si>
+    <t>define decision rules for indoor model outcome</t>
+  </si>
+  <si>
+    <t>weather textual updates</t>
+  </si>
+  <si>
+    <t>Lars/Boris</t>
+  </si>
+  <si>
+    <t>Global notification to users with request to fill in questionnaire</t>
+  </si>
+  <si>
+    <t>v3.1</t>
   </si>
 </sst>
 </file>
@@ -252,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -291,6 +309,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -408,6 +439,32 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -534,6 +591,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -573,6 +643,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -628,6 +709,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -750,100 +842,190 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8904B3-18BB-9E4B-9FCC-4216D830966B}">
-  <dimension ref="B1:AA29"/>
+  <dimension ref="B1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1351,7 @@
     <col min="1" max="1" width="1.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -1185,968 +1367,1066 @@
   <sheetData>
     <row r="1" spans="2:27" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="76">
+      <c r="E2" s="89">
         <v>43710</v>
       </c>
-      <c r="F2" s="77">
+      <c r="F2" s="90">
         <v>43717</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="90">
         <v>43724</v>
       </c>
-      <c r="H2" s="77">
+      <c r="H2" s="90">
         <v>43731</v>
       </c>
-      <c r="I2" s="78">
+      <c r="I2" s="91">
         <v>43738</v>
       </c>
-      <c r="J2" s="76">
+      <c r="J2" s="89">
         <v>43745</v>
       </c>
-      <c r="K2" s="77">
+      <c r="K2" s="90">
         <v>43752</v>
       </c>
-      <c r="L2" s="77">
+      <c r="L2" s="90">
         <v>43759</v>
       </c>
-      <c r="M2" s="78">
+      <c r="M2" s="91">
         <v>43766</v>
       </c>
-      <c r="N2" s="76">
+      <c r="N2" s="89">
         <v>43773</v>
       </c>
-      <c r="O2" s="77">
+      <c r="O2" s="90">
         <v>43780</v>
       </c>
-      <c r="P2" s="77">
+      <c r="P2" s="90">
         <v>43787</v>
       </c>
-      <c r="Q2" s="78">
+      <c r="Q2" s="91">
         <v>43794</v>
       </c>
-      <c r="R2" s="76">
+      <c r="R2" s="89">
         <v>43801</v>
       </c>
-      <c r="S2" s="77">
+      <c r="S2" s="90">
         <v>43808</v>
       </c>
-      <c r="T2" s="77">
+      <c r="T2" s="90">
         <v>43815</v>
       </c>
-      <c r="U2" s="77">
+      <c r="U2" s="90">
         <v>43822</v>
       </c>
-      <c r="V2" s="78">
+      <c r="V2" s="91">
         <v>43829</v>
       </c>
-      <c r="W2" s="76">
+      <c r="W2" s="89">
         <v>43836</v>
       </c>
-      <c r="X2" s="77">
+      <c r="X2" s="90">
         <v>43843</v>
       </c>
-      <c r="Y2" s="77">
+      <c r="Y2" s="90">
         <v>43850</v>
       </c>
-      <c r="Z2" s="78">
+      <c r="Z2" s="91">
         <v>43857</v>
       </c>
-      <c r="AA2" s="79">
+      <c r="AA2" s="92">
         <v>43864</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="49"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="57"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="36"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="47"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="47"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="47"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="55"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="47"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="55"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="50"/>
-    </row>
-    <row r="5" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="60" t="s">
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="58"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="42"/>
+      <c r="C5" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="73"/>
+    </row>
+    <row r="6" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="72"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="85"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="49"/>
-    </row>
-    <row r="7" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="60" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="57"/>
+    </row>
+    <row r="8" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D8" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="72"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="85"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D9" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="49"/>
-    </row>
-    <row r="9" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="60" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="57"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="100"/>
+      <c r="C10" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D10" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="109"/>
+    </row>
+    <row r="11" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="72"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="85"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C12" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D12" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="52"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="40" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="60"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="41"/>
+      <c r="C13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="51"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="36"/>
-      <c r="C12" s="41" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="59"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
+      <c r="C14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="51"/>
-    </row>
-    <row r="13" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="60" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="59"/>
+    </row>
+    <row r="15" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="61"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="37" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="69"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="52"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="C15" s="40" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="60"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B17" s="41"/>
+      <c r="C17" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D17" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="51"/>
-    </row>
-    <row r="16" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="60" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="59"/>
+    </row>
+    <row r="18" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
+      <c r="C18" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="61"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="69"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C19" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="52"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="35"/>
-      <c r="C18" s="41" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="60"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B20" s="40"/>
+      <c r="C20" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="51"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="35"/>
-      <c r="C19" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="51"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="35"/>
-      <c r="C20" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="51"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="59"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="36"/>
-      <c r="C21" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="1"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="13"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="13"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="51"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="59"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B22" s="36"/>
-      <c r="C22" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="12"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="13"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="51"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="59"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B23" s="36"/>
-      <c r="C23" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="12"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="13"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="51"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="59"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="12"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="12"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="13"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="51"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="59"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="12"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="13"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="13"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="51"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="59"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="12"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="53"/>
-    </row>
-    <row r="27" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="43" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="59"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B27" s="41"/>
+      <c r="C27" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="59"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B28" s="41"/>
+      <c r="C28" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D28" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="61"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B29" s="42"/>
+      <c r="C29" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="114"/>
+    </row>
+    <row r="30" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="44"/>
+      <c r="C30" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="54"/>
-    </row>
-    <row r="28" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="62"/>
+    </row>
+    <row r="31" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C31" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D31" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="83"/>
-    </row>
-    <row r="29" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="E31" s="94"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="96"/>
+    </row>
+    <row r="32" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C32" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E32" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="26" t="s">
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="55"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="32"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
